--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>120.6115993333333</v>
+        <v>32.09557633333333</v>
       </c>
       <c r="H2">
-        <v>361.834798</v>
+        <v>96.28672900000001</v>
       </c>
       <c r="I2">
-        <v>0.4273073648704228</v>
+        <v>0.1656600924295661</v>
       </c>
       <c r="J2">
-        <v>0.4273073648704228</v>
+        <v>0.1656600924295661</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.33077566666667</v>
+        <v>39.327127</v>
       </c>
       <c r="N2">
-        <v>75.992327</v>
+        <v>117.981381</v>
       </c>
       <c r="O2">
-        <v>0.988229338287255</v>
+        <v>0.9923865713449503</v>
       </c>
       <c r="P2">
-        <v>0.988229338287255</v>
+        <v>0.9923865713449502</v>
       </c>
       <c r="Q2">
-        <v>3055.18536551055</v>
+        <v>1262.226806599194</v>
       </c>
       <c r="R2">
-        <v>27496.66828959495</v>
+        <v>11360.04125939275</v>
       </c>
       <c r="S2">
-        <v>0.4222776744311685</v>
+        <v>0.1643988511348646</v>
       </c>
       <c r="T2">
-        <v>0.4222776744311685</v>
+        <v>0.1643988511348646</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>120.6115993333333</v>
+        <v>32.09557633333333</v>
       </c>
       <c r="H3">
-        <v>361.834798</v>
+        <v>96.28672900000001</v>
       </c>
       <c r="I3">
-        <v>0.4273073648704228</v>
+        <v>0.1656600924295661</v>
       </c>
       <c r="J3">
-        <v>0.4273073648704228</v>
+        <v>0.1656600924295661</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.172996</v>
       </c>
       <c r="O3">
-        <v>0.002249697164903793</v>
+        <v>0.001455135597170125</v>
       </c>
       <c r="P3">
-        <v>0.002249697164903793</v>
+        <v>0.001455135597170125</v>
       </c>
       <c r="Q3">
-        <v>6.955108079423112</v>
+        <v>1.850802107787111</v>
       </c>
       <c r="R3">
-        <v>62.595972714808</v>
+        <v>16.657218970084</v>
       </c>
       <c r="S3">
-        <v>0.0009613121672915009</v>
+        <v>0.0002410578975247547</v>
       </c>
       <c r="T3">
-        <v>0.0009613121672915007</v>
+        <v>0.0002410578975247547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>120.6115993333333</v>
+        <v>32.09557633333333</v>
       </c>
       <c r="H4">
-        <v>361.834798</v>
+        <v>96.28672900000001</v>
       </c>
       <c r="I4">
-        <v>0.4273073648704228</v>
+        <v>0.1656600924295661</v>
       </c>
       <c r="J4">
-        <v>0.4273073648704228</v>
+        <v>0.1656600924295661</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>0.732138</v>
       </c>
       <c r="O4">
-        <v>0.009520964547841182</v>
+        <v>0.00615829305787961</v>
       </c>
       <c r="P4">
-        <v>0.009520964547841182</v>
+        <v>0.006158293057879609</v>
       </c>
       <c r="Q4">
-        <v>29.43477837090266</v>
+        <v>7.832797021844666</v>
       </c>
       <c r="R4">
-        <v>264.913005338124</v>
+        <v>70.495173196602</v>
       </c>
       <c r="S4">
-        <v>0.004068378271962732</v>
+        <v>0.001020183397176691</v>
       </c>
       <c r="T4">
-        <v>0.004068378271962732</v>
+        <v>0.001020183397176691</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>403.29216</v>
       </c>
       <c r="I5">
-        <v>0.4762662715555095</v>
+        <v>0.6938590312037638</v>
       </c>
       <c r="J5">
-        <v>0.4762662715555095</v>
+        <v>0.6938590312037638</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.33077566666667</v>
+        <v>39.327127</v>
       </c>
       <c r="N5">
-        <v>75.992327</v>
+        <v>117.981381</v>
       </c>
       <c r="O5">
-        <v>0.988229338287255</v>
+        <v>0.9923865713449503</v>
       </c>
       <c r="P5">
-        <v>0.988229338287255</v>
+        <v>0.9923865713449502</v>
       </c>
       <c r="Q5">
-        <v>3405.23441102848</v>
+        <v>5286.77399814144</v>
       </c>
       <c r="R5">
-        <v>30647.10969925632</v>
+        <v>47580.96598327296</v>
       </c>
       <c r="S5">
-        <v>0.4706603023878393</v>
+        <v>0.6885763849730321</v>
       </c>
       <c r="T5">
-        <v>0.4706603023878393</v>
+        <v>0.688576384973032</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>403.29216</v>
       </c>
       <c r="I6">
-        <v>0.4762662715555095</v>
+        <v>0.6938590312037638</v>
       </c>
       <c r="J6">
-        <v>0.4762662715555095</v>
+        <v>0.6938590312037638</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.172996</v>
       </c>
       <c r="O6">
-        <v>0.002249697164903793</v>
+        <v>0.001455135597170125</v>
       </c>
       <c r="P6">
-        <v>0.002249697164903793</v>
+        <v>0.001455135597170125</v>
       </c>
       <c r="Q6">
         <v>7.751992279040001</v>
@@ -818,10 +818,10 @@
         <v>69.76793051136001</v>
       </c>
       <c r="S6">
-        <v>0.00107145488085773</v>
+        <v>0.001009658975722573</v>
       </c>
       <c r="T6">
-        <v>0.00107145488085773</v>
+        <v>0.001009658975722573</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>403.29216</v>
       </c>
       <c r="I7">
-        <v>0.4762662715555095</v>
+        <v>0.6938590312037638</v>
       </c>
       <c r="J7">
-        <v>0.4762662715555095</v>
+        <v>0.6938590312037638</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>0.732138</v>
       </c>
       <c r="O7">
-        <v>0.009520964547841182</v>
+        <v>0.00615829305787961</v>
       </c>
       <c r="P7">
-        <v>0.009520964547841182</v>
+        <v>0.006158293057879609</v>
       </c>
       <c r="Q7">
         <v>32.80727949312</v>
@@ -880,10 +880,10 @@
         <v>295.26551543808</v>
       </c>
       <c r="S7">
-        <v>0.004534514286812508</v>
+        <v>0.00427298725500921</v>
       </c>
       <c r="T7">
-        <v>0.004534514286812508</v>
+        <v>0.00427298725500921</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>81.651796</v>
       </c>
       <c r="I8">
-        <v>0.09642636357406766</v>
+        <v>0.1404808763666701</v>
       </c>
       <c r="J8">
-        <v>0.09642636357406766</v>
+        <v>0.1404808763666701</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.33077566666667</v>
+        <v>39.327127</v>
       </c>
       <c r="N8">
-        <v>75.992327</v>
+        <v>117.981381</v>
       </c>
       <c r="O8">
-        <v>0.988229338287255</v>
+        <v>0.9923865713449503</v>
       </c>
       <c r="P8">
-        <v>0.988229338287255</v>
+        <v>0.9923865713449502</v>
       </c>
       <c r="Q8">
-        <v>689.4344424188102</v>
+        <v>1070.376850356697</v>
       </c>
       <c r="R8">
-        <v>6204.909981769292</v>
+        <v>9633.391653210276</v>
       </c>
       <c r="S8">
-        <v>0.09529136146824715</v>
+        <v>0.1394113352370537</v>
       </c>
       <c r="T8">
-        <v>0.09529136146824715</v>
+        <v>0.1394113352370536</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>81.651796</v>
       </c>
       <c r="I9">
-        <v>0.09642636357406766</v>
+        <v>0.1404808763666701</v>
       </c>
       <c r="J9">
-        <v>0.09642636357406766</v>
+        <v>0.1404808763666701</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>0.172996</v>
       </c>
       <c r="O9">
-        <v>0.002249697164903793</v>
+        <v>0.001455135597170125</v>
       </c>
       <c r="P9">
-        <v>0.002249697164903793</v>
+        <v>0.001455135597170125</v>
       </c>
       <c r="Q9">
         <v>1.569492677868445</v>
@@ -1004,10 +1004,10 @@
         <v>14.125434100816</v>
       </c>
       <c r="S9">
-        <v>0.0002169301167545624</v>
+        <v>0.0002044187239227971</v>
       </c>
       <c r="T9">
-        <v>0.0002169301167545624</v>
+        <v>0.0002044187239227971</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>81.651796</v>
       </c>
       <c r="I10">
-        <v>0.09642636357406766</v>
+        <v>0.1404808763666701</v>
       </c>
       <c r="J10">
-        <v>0.09642636357406766</v>
+        <v>0.1404808763666701</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>0.732138</v>
       </c>
       <c r="O10">
-        <v>0.009520964547841182</v>
+        <v>0.00615829305787961</v>
       </c>
       <c r="P10">
-        <v>0.009520964547841182</v>
+        <v>0.006158293057879609</v>
       </c>
       <c r="Q10">
         <v>6.642264735538666</v>
@@ -1066,10 +1066,10 @@
         <v>59.780382619848</v>
       </c>
       <c r="S10">
-        <v>0.0009180719890659424</v>
+        <v>0.0008651224056937084</v>
       </c>
       <c r="T10">
-        <v>0.0009180719890659424</v>
+        <v>0.0008651224056937083</v>
       </c>
     </row>
   </sheetData>
